--- a/draft/Regression_IY_15 WIN/TEJitems.xlsx
+++ b/draft/Regression_IY_15 WIN/TEJitems.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\draft\Regression_IY_15 WIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E7820-710D-4237-A0BD-EE6F40C66566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36551EE4-2064-4AC3-96F0-FA3BE21BCBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{D03A6C80-483E-4182-98F2-ACAF5E331741}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$277</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="694">
   <si>
     <t>id</t>
   </si>
@@ -2491,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DDEC95-565A-42C0-B24A-764488B3B5B9}">
   <dimension ref="A1:I277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2502,7 +2505,7 @@
     <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2727,11 +2730,8 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3250,11 +3250,8 @@
       <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3374,7 +3371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3394,7 +3391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3413,11 +3410,8 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4679,9 +4673,6 @@
       <c r="F108" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>693</v>
-      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -4742,6 +4733,9 @@
       <c r="F111" t="s">
         <v>14</v>
       </c>
+      <c r="I111" s="1" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -5083,7 +5077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -5102,11 +5096,8 @@
       <c r="F129" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -5126,7 +5117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -5146,7 +5137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -5166,7 +5157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -5186,7 +5177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +5197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -5226,7 +5217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -5246,7 +5237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -5266,7 +5257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -5286,7 +5277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -5326,7 +5317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -5346,7 +5337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +5357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +5377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -8067,6 +8058,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I277" xr:uid="{37DDEC95-565A-42C0-B24A-764488B3B5B9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
